--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,31 +46,37 @@
     <t>negative</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>insane</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>boring</t>
@@ -79,57 +85,57 @@
     <t>stupid</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
+    <t>frightening</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
@@ -151,28 +157,34 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
+    <t>essential</t>
   </si>
   <si>
     <t>free</t>
@@ -181,79 +193,73 @@
     <t>love</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
-    <t>well</t>
+    <t>highly</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>dilemma</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -628,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -757,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -789,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -836,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.86</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.8</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,49 +1042,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10">
+        <v>0.7192982456140351</v>
+      </c>
+      <c r="L10">
+        <v>41</v>
+      </c>
+      <c r="M10">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>16</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L10">
-        <v>38</v>
-      </c>
-      <c r="M10">
-        <v>38</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,16 +1113,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.6533333333333333</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,16 +1163,16 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.6111111111111112</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,16 +1213,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.55</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,31 +1260,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.5384615384615384</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>7</v>
-      </c>
-      <c r="M14">
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.4814814814814815</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,31 +1360,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>6</v>
-      </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.4210526315789473</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,38 +1442,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="L18">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>9</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="L18">
-        <v>19</v>
-      </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6875</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -1528,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6285714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,16 +1563,16 @@
         <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.3333333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1578,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1636,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5957446808510638</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.3157894736842105</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1678,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5833333333333334</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.3076923076923077</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1728,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,16 +1763,16 @@
         <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.2608695652173913</v>
+        <v>0.2258652094717669</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1778,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5579710144927537</v>
+        <v>0.5625</v>
       </c>
       <c r="C25">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.2542372881355932</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1828,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,13 +1842,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.55</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1854,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>63</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="L26">
         <v>9</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26">
-        <v>0.2276867030965392</v>
-      </c>
-      <c r="L26">
-        <v>250</v>
-      </c>
       <c r="M26">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1878,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>848</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,13 +1892,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5294117647058824</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1904,19 +1910,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.2195121951219512</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1928,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,13 +1942,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1957,16 +1963,16 @@
         <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.1304347826086956</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1978,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +1992,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.1157894736842105</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2028,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +2042,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2054,19 +2060,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K30">
-        <v>0.1147540983606557</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2078,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2086,13 +2092,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4102564102564102</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2104,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.1111111111111111</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2128,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2136,13 +2142,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3928571428571428</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2154,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.09230769230769231</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2178,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2186,7 +2192,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3214285714285715</v>
+        <v>0.375</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -2204,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.08235294117647059</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2228,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2236,13 +2242,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2857142857142857</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2254,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>0.0821917808219178</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2278,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>67</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2286,13 +2292,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1025641025641026</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2304,19 +2310,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K35">
-        <v>0.03463855421686747</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2328,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>641</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2336,89 +2342,137 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.04026845637583892</v>
+        <v>0.25</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K36">
-        <v>0.02932551319648094</v>
+        <v>0.02259036144578313</v>
       </c>
       <c r="L36">
+        <v>15</v>
+      </c>
+      <c r="M36">
+        <v>15</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="C37">
         <v>10</v>
       </c>
-      <c r="M36">
+      <c r="D37">
         <v>10</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>68</v>
+      </c>
       <c r="J37" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K37">
-        <v>0.02777777777777778</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.04697986577181208</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
         <v>15</v>
       </c>
-      <c r="M37">
-        <v>15</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="E38">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F38">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>284</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0.02222222222222222</v>
+        <v>0.02176696542893726</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2430,21 +2484,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>308</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K39">
-        <v>0.0211038961038961</v>
+        <v>0.02120141342756184</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2456,21 +2510,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>603</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K40">
-        <v>0.01280409731113956</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2482,21 +2536,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>771</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>0.01152073732718894</v>
+        <v>0.01555299539170507</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2508,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1716</v>
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
